--- a/excel/assignments/Assignment5_Workbook.xlsx
+++ b/excel/assignments/Assignment5_Workbook.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Schedule" sheetId="6" r:id="rId1"/>
-    <sheet name="Player Info" sheetId="2" r:id="rId2"/>
+    <sheet name="Spielplan" sheetId="6" r:id="rId1"/>
+    <sheet name="Spieler Info" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -16,15 +16,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="143">
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
   <si>
     <t>Tigers</t>
   </si>
@@ -60,30 +51,6 @@
   </si>
   <si>
     <t>Team</t>
-  </si>
-  <si>
-    <t>Opponent</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>Cell Phone</t>
-  </si>
-  <si>
-    <t>Position(s)</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last</t>
   </si>
   <si>
     <t>Amanda</t>
@@ -302,9 +269,6 @@
     <t>746 Brookside Drive</t>
   </si>
   <si>
-    <t>Street Address</t>
-  </si>
-  <si>
     <t>513-555-4477</t>
   </si>
   <si>
@@ -443,7 +407,43 @@
     <t>First base, Third base</t>
   </si>
   <si>
-    <t>Bulls Team Roster: Co-ed Softball 2013</t>
+    <t>Gegner</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Uhrzeit</t>
+  </si>
+  <si>
+    <t>Freitag</t>
+  </si>
+  <si>
+    <t>Samstag</t>
+  </si>
+  <si>
+    <t>Sonntag</t>
+  </si>
+  <si>
+    <t>Vorname</t>
+  </si>
+  <si>
+    <t>Nachname</t>
+  </si>
+  <si>
+    <t>telefon</t>
+  </si>
+  <si>
+    <t>Adresse</t>
+  </si>
+  <si>
+    <t>Position(en)</t>
+  </si>
+  <si>
+    <t>Bulls Mannschaft: Softball 2013</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="168" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -513,7 +513,6 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -521,11 +520,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="168" formatCode="h:mm;@"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -542,9 +545,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -56887,23 +56887,23 @@
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" name="Team"/>
-    <tableColumn id="2" name="Opponent"/>
-    <tableColumn id="6" name="Day" dataDxfId="3"/>
-    <tableColumn id="3" name="Date" dataDxfId="2"/>
-    <tableColumn id="4" name="Time" dataDxfId="1"/>
+    <tableColumn id="2" name="Gegner"/>
+    <tableColumn id="6" name="Tag" dataDxfId="3"/>
+    <tableColumn id="3" name="Datum" dataDxfId="2"/>
+    <tableColumn id="4" name="Uhrzeit" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A6:E30" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A6:E30" totalsRowShown="0" headerRowDxfId="1">
   <tableColumns count="5">
-    <tableColumn id="1" name="First Name"/>
-    <tableColumn id="2" name="Last"/>
-    <tableColumn id="3" name="Cell Phone"/>
-    <tableColumn id="5" name="Street Address"/>
-    <tableColumn id="6" name="Position(s)"/>
+    <tableColumn id="1" name="Vorname"/>
+    <tableColumn id="2" name="Nachname"/>
+    <tableColumn id="3" name="telefon"/>
+    <tableColumn id="5" name="Adresse"/>
+    <tableColumn id="6" name="Position(en)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -57198,8 +57198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57208,1689 +57208,1689 @@
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>132</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D2" s="1">
         <v>40711</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1">
         <v>40768</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D4" s="1">
         <v>40719</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D5" s="1">
         <v>40733</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D6" s="1">
         <v>40726</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D7" s="1">
         <v>40740</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D8" s="1">
         <v>40747</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D9" s="1">
         <v>40775</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D10" s="1">
         <v>40761</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D11" s="1">
         <v>40767</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D12" s="1">
         <v>40719</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D13" s="1">
         <v>40726</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D14" s="1">
         <v>40775</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D15" s="1">
         <v>40761</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D16" s="1">
         <v>40754</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D17" s="1">
         <v>40733</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D18" s="1">
         <v>40740</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D19" s="1">
         <v>40712</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D20" s="1">
         <v>40760</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D21" s="1">
         <v>40711</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D22" s="1">
         <v>40768</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D23" s="1">
         <v>40719</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D24" s="1">
         <v>40740</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D25" s="1">
         <v>40726</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D26" s="1">
         <v>40775</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D27" s="1">
         <v>40747</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D28" s="1">
         <v>40733</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D29" s="1">
         <v>40725</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D30" s="1">
         <v>40719</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D31" s="1">
         <v>40768</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D32" s="1">
         <v>40754</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D33" s="1">
         <v>40747</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D34" s="1">
         <v>40712</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D35" s="1">
         <v>40775</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D36" s="1">
         <v>40740</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D37" s="1">
         <v>40761</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D38" s="1">
         <v>40760</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D39" s="1">
         <v>40726</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
         <v>8</v>
       </c>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D40" s="1">
         <v>40768</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D41" s="1">
         <v>40754</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D42" s="1">
         <v>40733</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D43" s="1">
         <v>40712</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D44" s="1">
         <v>40747</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D45" s="1">
         <v>40740</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D46" s="1">
         <v>40719</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D47" s="1">
         <v>40767</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D48" s="1">
         <v>40718</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D49" s="1">
         <v>40733</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D50" s="1">
         <v>40775</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D51" s="1">
         <v>40726</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
         <v>9</v>
       </c>
-      <c r="B52" t="s">
-        <v>12</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D52" s="1">
         <v>40747</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D53" s="1">
         <v>40740</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D54" s="1">
         <v>40761</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D55" s="1">
         <v>40711</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D56" s="1">
         <v>40718</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D57" s="1">
         <v>40761</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D58" s="1">
         <v>40754</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D59" s="1">
         <v>40747</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D60" s="1">
         <v>40733</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D61" s="1">
         <v>40775</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D62" s="1">
         <v>40740</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D63" s="1">
         <v>40768</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D64" s="1">
         <v>40711</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D65" s="1">
         <v>40754</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D66" s="1">
         <v>40747</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D67" s="1">
         <v>40726</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
         <v>7</v>
       </c>
-      <c r="B68" t="s">
-        <v>10</v>
-      </c>
       <c r="C68" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D68" s="1">
         <v>40775</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D69" s="1">
         <v>40733</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D70" s="1">
         <v>40719</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D71" s="1">
         <v>40768</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D72" s="1">
         <v>40740</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D73" s="1">
         <v>40725</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D74" s="1">
         <v>40767</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D75" s="1">
         <v>40740</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
         <v>5</v>
       </c>
-      <c r="B76" t="s">
-        <v>8</v>
-      </c>
       <c r="C76" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D76" s="1">
         <v>40754</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D77" s="1">
         <v>40747</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="D78" s="1">
         <v>40727</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D79" s="1">
         <v>40761</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D80" s="1">
         <v>40712</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D81" s="1">
         <v>40782</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D82" s="1">
         <v>40767</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
         <v>10</v>
       </c>
-      <c r="B83" t="s">
-        <v>13</v>
-      </c>
       <c r="C83" s="1" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D83" s="1">
         <v>40718</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D84" s="1">
         <v>40726</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D85" s="1">
         <v>40712</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D86" s="1">
         <v>40733</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D87" s="1">
         <v>40775</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="D88" s="1">
         <v>40727</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D89" s="1">
         <v>40761</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D90" s="1">
         <v>40754</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D91" s="1">
         <v>40718</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
         <v>3</v>
       </c>
-      <c r="B92" t="s">
-        <v>6</v>
-      </c>
       <c r="C92" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D92" s="1">
         <v>40733</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D93" s="1">
         <v>40726</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D94" s="1">
         <v>40712</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D95" s="1">
         <v>40733</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="5">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D96" s="1">
         <v>40761</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D97" s="1">
         <v>40740</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D98" s="1">
         <v>40782</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D99" s="1">
         <v>40754</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="5">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -58907,8 +58907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58921,465 +58921,465 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
+      <c r="A6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E27" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
